--- a/project/DanoPizza_assignment 3(1)-2.xlsx
+++ b/project/DanoPizza_assignment 3(1)-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cassidylong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F335C50F-174D-164B-938B-FE9E0AC60543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BD62D-C7AB-4C9F-AE9E-C413AE3BC34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data View" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="45">
   <si>
     <t>Cust_No</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>High School or Less</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Bachelors</t>
@@ -514,33 +508,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,10 +587,10 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -616,7 +610,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -633,8 +627,8 @@
       <c r="L2">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -652,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -672,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -689,8 +683,8 @@
       <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
-        <v>19</v>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
         <v>5</v>
@@ -708,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -728,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -745,8 +739,8 @@
       <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4">
         <v>4</v>
@@ -764,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -784,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -801,8 +795,8 @@
       <c r="L5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>20</v>
+      <c r="M5">
+        <v>1</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -820,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -840,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -857,8 +851,8 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -876,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -896,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -913,8 +907,8 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -932,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -949,10 +943,10 @@
         <v>29201</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -969,8 +963,8 @@
       <c r="L8">
         <v>4</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
+      <c r="M8">
+        <v>0</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -988,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1005,10 +999,10 @@
         <v>29206</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1025,8 +1019,8 @@
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9" t="s">
-        <v>19</v>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1044,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1061,10 +1055,10 @@
         <v>29208</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -1081,8 +1075,8 @@
       <c r="L10">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
-        <v>20</v>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1100,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1120,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1137,8 +1131,8 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>20</v>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -1156,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1173,10 +1167,10 @@
         <v>29206</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1193,8 +1187,8 @@
       <c r="L12">
         <v>7</v>
       </c>
-      <c r="M12" t="s">
-        <v>20</v>
+      <c r="M12">
+        <v>1</v>
       </c>
       <c r="N12">
         <v>7</v>
@@ -1212,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1229,10 +1223,10 @@
         <v>29208</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1249,8 +1243,8 @@
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="M13" t="s">
-        <v>20</v>
+      <c r="M13">
+        <v>1</v>
       </c>
       <c r="N13">
         <v>7</v>
@@ -1268,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1285,10 +1279,10 @@
         <v>29201</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1305,8 +1299,8 @@
       <c r="L14">
         <v>6</v>
       </c>
-      <c r="M14" t="s">
-        <v>19</v>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1324,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1341,10 +1335,10 @@
         <v>29206</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>7</v>
@@ -1361,8 +1355,8 @@
       <c r="L15">
         <v>2</v>
       </c>
-      <c r="M15" t="s">
-        <v>19</v>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -1380,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1397,10 +1391,10 @@
         <v>29208</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1417,8 +1411,8 @@
       <c r="L16">
         <v>7</v>
       </c>
-      <c r="M16" t="s">
-        <v>20</v>
+      <c r="M16">
+        <v>1</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1436,7 +1430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1453,10 +1447,10 @@
         <v>29201</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1473,8 +1467,8 @@
       <c r="L17">
         <v>4</v>
       </c>
-      <c r="M17" t="s">
-        <v>20</v>
+      <c r="M17">
+        <v>1</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -1492,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1509,10 +1503,10 @@
         <v>29206</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1529,8 +1523,8 @@
       <c r="L18">
         <v>6</v>
       </c>
-      <c r="M18" t="s">
-        <v>19</v>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1548,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1565,10 +1559,10 @@
         <v>29208</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -1585,8 +1579,8 @@
       <c r="L19">
         <v>4</v>
       </c>
-      <c r="M19" t="s">
-        <v>19</v>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1604,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1621,10 +1615,10 @@
         <v>29201</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1641,8 +1635,8 @@
       <c r="L20">
         <v>5</v>
       </c>
-      <c r="M20" t="s">
-        <v>19</v>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20">
         <v>6</v>
@@ -1660,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1680,7 +1674,7 @@
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>7</v>
@@ -1697,8 +1691,8 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
-        <v>20</v>
+      <c r="M21">
+        <v>1</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -1716,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1733,10 +1727,10 @@
         <v>29208</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1753,8 +1747,8 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>19</v>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22">
         <v>6</v>
@@ -1772,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1789,10 +1783,10 @@
         <v>29201</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1809,8 +1803,8 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
-        <v>19</v>
+      <c r="M23">
+        <v>0</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -1828,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1845,10 +1839,10 @@
         <v>29206</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1865,8 +1859,8 @@
       <c r="L24">
         <v>3</v>
       </c>
-      <c r="M24" t="s">
-        <v>19</v>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -1884,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1901,10 +1895,10 @@
         <v>29208</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1921,8 +1915,8 @@
       <c r="L25">
         <v>2</v>
       </c>
-      <c r="M25" t="s">
-        <v>20</v>
+      <c r="M25">
+        <v>1</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -1940,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1957,10 +1951,10 @@
         <v>29201</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -1977,8 +1971,8 @@
       <c r="L26">
         <v>5</v>
       </c>
-      <c r="M26" t="s">
-        <v>19</v>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -1996,7 +1990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2007,7 +2001,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>29206</v>
@@ -2016,7 +2010,7 @@
         <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2033,8 +2027,8 @@
       <c r="L27">
         <v>3</v>
       </c>
-      <c r="M27" t="s">
-        <v>20</v>
+      <c r="M27">
+        <v>1</v>
       </c>
       <c r="N27">
         <v>6</v>
@@ -2052,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2063,7 +2057,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>29208</v>
@@ -2072,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2089,8 +2083,8 @@
       <c r="L28">
         <v>7</v>
       </c>
-      <c r="M28" t="s">
-        <v>20</v>
+      <c r="M28">
+        <v>1</v>
       </c>
       <c r="N28">
         <v>6</v>
@@ -2108,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2119,7 +2113,7 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>29201</v>
@@ -2128,7 +2122,7 @@
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -2145,8 +2139,8 @@
       <c r="L29">
         <v>4</v>
       </c>
-      <c r="M29" t="s">
-        <v>20</v>
+      <c r="M29">
+        <v>1</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2164,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>29206</v>
@@ -2184,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2201,8 +2195,8 @@
       <c r="L30">
         <v>3</v>
       </c>
-      <c r="M30" t="s">
-        <v>20</v>
+      <c r="M30">
+        <v>1</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -2220,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2231,7 +2225,7 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>29208</v>
@@ -2240,7 +2234,7 @@
         <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2257,8 +2251,8 @@
       <c r="L31">
         <v>2</v>
       </c>
-      <c r="M31" t="s">
-        <v>20</v>
+      <c r="M31">
+        <v>1</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -2276,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2287,7 +2281,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>29201</v>
@@ -2296,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -2313,8 +2307,8 @@
       <c r="L32">
         <v>2</v>
       </c>
-      <c r="M32" t="s">
-        <v>20</v>
+      <c r="M32">
+        <v>1</v>
       </c>
       <c r="N32">
         <v>5</v>
@@ -2332,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2343,16 +2337,16 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>29206</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -2369,8 +2363,8 @@
       <c r="L33">
         <v>3</v>
       </c>
-      <c r="M33" t="s">
-        <v>19</v>
+      <c r="M33">
+        <v>0</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2388,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2399,16 +2393,16 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>29208</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -2425,8 +2419,8 @@
       <c r="L34">
         <v>4</v>
       </c>
-      <c r="M34" t="s">
-        <v>20</v>
+      <c r="M34">
+        <v>1</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2444,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2455,16 +2449,16 @@
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>29201</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2481,8 +2475,8 @@
       <c r="L35">
         <v>3</v>
       </c>
-      <c r="M35" t="s">
-        <v>19</v>
+      <c r="M35">
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2500,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2511,7 +2505,7 @@
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>29206</v>
@@ -2520,7 +2514,7 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -2537,8 +2531,8 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36" t="s">
-        <v>20</v>
+      <c r="M36">
+        <v>1</v>
       </c>
       <c r="N36">
         <v>5</v>
@@ -2556,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2567,16 +2561,16 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>29208</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -2593,8 +2587,8 @@
       <c r="L37">
         <v>3</v>
       </c>
-      <c r="M37" t="s">
-        <v>19</v>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37">
         <v>5</v>
@@ -2612,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2623,16 +2617,16 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>29201</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -2649,8 +2643,8 @@
       <c r="L38">
         <v>2</v>
       </c>
-      <c r="M38" t="s">
-        <v>20</v>
+      <c r="M38">
+        <v>1</v>
       </c>
       <c r="N38">
         <v>5</v>
@@ -2668,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2679,16 +2673,16 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>29206</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -2705,8 +2699,8 @@
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39" t="s">
-        <v>19</v>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39">
         <v>4</v>
@@ -2724,7 +2718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2735,16 +2729,16 @@
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>29208</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -2761,8 +2755,8 @@
       <c r="L40">
         <v>6</v>
       </c>
-      <c r="M40" t="s">
-        <v>20</v>
+      <c r="M40">
+        <v>1</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -2780,7 +2774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2791,16 +2785,16 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>29201</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -2817,8 +2811,8 @@
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41" t="s">
-        <v>19</v>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41">
         <v>6</v>
@@ -2836,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2847,16 +2841,16 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>29206</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>5</v>
@@ -2873,8 +2867,8 @@
       <c r="L42">
         <v>7</v>
       </c>
-      <c r="M42" t="s">
-        <v>19</v>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42">
         <v>5</v>
@@ -2892,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2903,16 +2897,16 @@
         <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>29208</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>7</v>
@@ -2929,8 +2923,8 @@
       <c r="L43">
         <v>2</v>
       </c>
-      <c r="M43" t="s">
-        <v>19</v>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43">
         <v>5</v>
@@ -2948,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2959,16 +2953,16 @@
         <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>29201</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2985,8 +2979,8 @@
       <c r="L44">
         <v>2</v>
       </c>
-      <c r="M44" t="s">
-        <v>20</v>
+      <c r="M44">
+        <v>1</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -3004,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3015,16 +3009,16 @@
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>29206</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>7</v>
@@ -3041,8 +3035,8 @@
       <c r="L45">
         <v>3</v>
       </c>
-      <c r="M45" t="s">
-        <v>20</v>
+      <c r="M45">
+        <v>1</v>
       </c>
       <c r="N45">
         <v>5</v>
@@ -3060,7 +3054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3071,7 +3065,7 @@
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>29208</v>
@@ -3080,7 +3074,7 @@
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -3097,8 +3091,8 @@
       <c r="L46">
         <v>3</v>
       </c>
-      <c r="M46" t="s">
-        <v>20</v>
+      <c r="M46">
+        <v>1</v>
       </c>
       <c r="N46">
         <v>6</v>
@@ -3116,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3127,16 +3121,16 @@
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47">
         <v>29201</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -3153,8 +3147,8 @@
       <c r="L47">
         <v>5</v>
       </c>
-      <c r="M47" t="s">
-        <v>19</v>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47">
         <v>2</v>
@@ -3172,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3183,16 +3177,16 @@
         <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>29206</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -3209,8 +3203,8 @@
       <c r="L48">
         <v>3</v>
       </c>
-      <c r="M48" t="s">
-        <v>19</v>
+      <c r="M48">
+        <v>0</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -3228,7 +3222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3239,16 +3233,16 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49">
         <v>29208</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -3265,8 +3259,8 @@
       <c r="L49">
         <v>7</v>
       </c>
-      <c r="M49" t="s">
-        <v>19</v>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49">
         <v>5</v>
@@ -3284,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3295,16 +3289,16 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>29201</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -3321,8 +3315,8 @@
       <c r="L50">
         <v>3</v>
       </c>
-      <c r="M50" t="s">
-        <v>20</v>
+      <c r="M50">
+        <v>1</v>
       </c>
       <c r="N50">
         <v>6</v>
@@ -3340,7 +3334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3351,16 +3345,16 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>29206</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>7</v>
@@ -3377,8 +3371,8 @@
       <c r="L51">
         <v>2</v>
       </c>
-      <c r="M51" t="s">
-        <v>19</v>
+      <c r="M51">
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3409,146 +3403,146 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
